--- a/ACG/ACG/ステージ1.xlsx
+++ b/ACG/ACG/ステージ1.xlsx
@@ -99,7 +99,315 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="77">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -609,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CU9" sqref="CU9"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW20" sqref="AW20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2561,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS7" s="1">
         <v>0</v>
@@ -2573,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="1">
         <v>0</v>
@@ -3013,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="CP8" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CQ8" s="1">
         <v>0</v>
@@ -3329,8 +3637,8 @@
       <c r="CT9" s="1">
         <v>0</v>
       </c>
-      <c r="CU9" s="2">
-        <v>16</v>
+      <c r="CU9" s="1">
+        <v>0</v>
       </c>
       <c r="CV9" s="1">
         <v>0</v>
@@ -3617,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="CP10" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CQ10" s="1">
         <v>0</v>
@@ -3631,8 +3939,8 @@
       <c r="CT10" s="1">
         <v>0</v>
       </c>
-      <c r="CU10" s="1">
-        <v>0</v>
+      <c r="CU10" s="2">
+        <v>16</v>
       </c>
       <c r="CV10" s="1">
         <v>0</v>
@@ -4245,37 +4553,37 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:CV12">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="5" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4285,6 +4593,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -4416,22 +4739,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB4F2F8E-E54A-494D-AD4D-3104C1CE436D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{508D9E59-EB53-4D31-AE14-C9B5D54CF706}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C51DB8EF-5ED0-4C4A-8E73-48A995ECB4E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4447,28 +4779,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{508D9E59-EB53-4D31-AE14-C9B5D54CF706}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB4F2F8E-E54A-494D-AD4D-3104C1CE436D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ACG/ACG/ステージ1.xlsx
+++ b/ACG/ACG/ステージ1.xlsx
@@ -42,18 +42,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -85,483 +79,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -915,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV12"/>
+  <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW20" sqref="AW20"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AW21" sqref="AW21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1820,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="CS3" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="CT3" s="1">
         <v>0</v>
@@ -2555,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>0</v>
@@ -2809,13 +2338,13 @@
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
         <v>0</v>
@@ -2851,16 +2380,16 @@
         <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="1">
         <v>0</v>
@@ -2869,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="1">
         <v>0</v>
@@ -3114,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>0</v>
@@ -3153,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -3321,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="CP8" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CQ8" s="1">
         <v>0</v>
@@ -3455,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
@@ -3649,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -3757,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="1">
         <v>0</v>
@@ -3939,8 +3468,8 @@
       <c r="CT10" s="1">
         <v>0</v>
       </c>
-      <c r="CU10" s="2">
-        <v>16</v>
+      <c r="CU10" s="1">
+        <v>0</v>
       </c>
       <c r="CV10" s="1">
         <v>0</v>
@@ -4008,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V11" s="1">
         <v>0</v>
@@ -4026,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1">
         <v>0</v>
@@ -4059,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -4152,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="BQ11" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BR11" s="1">
         <v>0</v>
@@ -4167,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="BV11" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BW11" s="1">
         <v>0</v>
@@ -4250,73 +3779,73 @@
     </row>
     <row r="12" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
         <v>0</v>
@@ -4334,67 +3863,67 @@
         <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="1">
         <v>0</v>
@@ -4409,28 +3938,28 @@
         <v>0</v>
       </c>
       <c r="BB12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ12" s="1">
         <v>0</v>
@@ -4442,52 +3971,52 @@
         <v>0</v>
       </c>
       <c r="BM12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BQ12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BU12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CA12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CB12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>0</v>
@@ -4496,94 +4025,3718 @@
         <v>0</v>
       </c>
       <c r="CE12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CF12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CG12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CH12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CI12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CK12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CL12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CM12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CN12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CO12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CP12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CQ12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CR12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CS12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CT12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CU12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU13" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU14" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CV17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>17</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP22" s="1">
+        <v>12</v>
+      </c>
+      <c r="CQ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>7</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="1">
+        <v>14</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="1">
+        <v>7</v>
+      </c>
+      <c r="BR23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV23" s="1">
+        <v>6</v>
+      </c>
+      <c r="BW23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:100" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>2</v>
+      </c>
+      <c r="R24" s="1">
+        <v>2</v>
+      </c>
+      <c r="S24" s="1">
+        <v>2</v>
+      </c>
+      <c r="T24" s="1">
+        <v>2</v>
+      </c>
+      <c r="U24" s="1">
+        <v>2</v>
+      </c>
+      <c r="V24" s="1">
+        <v>2</v>
+      </c>
+      <c r="W24" s="1">
+        <v>2</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BT24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BZ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CB24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CG24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CH24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CI24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CK24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CL24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CM24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CQ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CR24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CS24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CT24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CU24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CV24" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:CV12">
-    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
+  <conditionalFormatting sqref="A13:CV24">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4593,21 +7746,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -4739,44 +7877,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB4F2F8E-E54A-494D-AD4D-3104C1CE436D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52903CC3-4FE4-4AD8-8AE5-21B2130C309E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{508D9E59-EB53-4D31-AE14-C9B5D54CF706}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C5E89F0-AAE1-48BA-B7F0-33581AC4BB0C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C51DB8EF-5ED0-4C4A-8E73-48A995ECB4E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76436343-C4B1-41EE-BC5D-58314CAABC59}"/>
 </file>
--- a/ACG/ACG/ステージ1.xlsx
+++ b/ACG/ACG/ステージ1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamGame\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,161 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -446,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AW21" sqref="AW21"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CT16" sqref="CT16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4979,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="CU15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CV15" s="1">
         <v>0</v>
@@ -5583,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="CU17" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CV17" s="1">
         <v>0</v>
@@ -5708,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AO18" s="1">
         <v>0</v>
@@ -7706,37 +7860,37 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A13:CV24">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7893,13 +8047,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52903CC3-4FE4-4AD8-8AE5-21B2130C309E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52903CC3-4FE4-4AD8-8AE5-21B2130C309E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C5E89F0-AAE1-48BA-B7F0-33581AC4BB0C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C5E89F0-AAE1-48BA-B7F0-33581AC4BB0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76436343-C4B1-41EE-BC5D-58314CAABC59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76436343-C4B1-41EE-BC5D-58314CAABC59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ACG/ACG/ステージ1.xlsx
+++ b/ACG/ACG/ステージ1.xlsx
@@ -42,12 +42,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -79,11 +85,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CT16" sqref="CT16"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CU21" sqref="CS21:CU21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7241,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="CS22" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CT22" s="1">
         <v>0</v>
@@ -7395,11 +7404,11 @@
       <c r="AU23" s="1">
         <v>0</v>
       </c>
-      <c r="AV23" s="1">
-        <v>0</v>
+      <c r="AV23" s="2">
+        <v>14</v>
       </c>
       <c r="AW23" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="1">
         <v>0</v>
@@ -8047,7 +8056,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52903CC3-4FE4-4AD8-8AE5-21B2130C309E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7EA6F0C-A41E-41A8-A873-698D7C32A625}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -8065,7 +8074,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C5E89F0-AAE1-48BA-B7F0-33581AC4BB0C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7ADBBD-4937-4C6B-A325-63F3401EF199}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -8073,10 +8082,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76436343-C4B1-41EE-BC5D-58314CAABC59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B014108C-DD25-4F5C-BED3-B91E8FF1C6CE}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>